--- a/biology/Botanique/Cyprès_de_l'Atlas/Cyprès_de_l'Atlas.xlsx
+++ b/biology/Botanique/Cyprès_de_l'Atlas/Cyprès_de_l'Atlas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Atlas</t>
+          <t>Cyprès_de_l'Atlas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetraclinis articulata
 Le cyprès de l’Atlas, thuya de Barbarie, ou thuya de Berbérie, est un arbre résineux de la famille des Cupressacées originaire de l'Afrique du Nord et du sud de l'Europe. Le genre Tetraclinis ne contient que l'espèce Tetraclinis articulata.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Atlas</t>
+          <t>Cyprès_de_l'Atlas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Atlas</t>
+          <t>Cyprès_de_l'Atlas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_l%27Atlas</t>
+          <t>Cyprès_de_l'Atlas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,17 +580,124 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès de l'Atlas est utilisé comme arbre d'ornement, mais aussi pour son bois er la préparation de la sandaraque, résine végétale qui en est extraite.
-Utilisation en médicinale
-C'est également une plante médicinale riche en huiles essentielles qui contient du camphre, du cédrol, du bornéol et de l'acétate de bornyle.
-Utilisation en papeterie
-La valorisation de la biomasse de thuya, et en particulier de son bois peut être envisagée par la filière papetière par le biais d'une cuisson soude en présence d'anthraquinone (AQ).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyprès_de_l'Atlas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypr%C3%A8s_de_l%27Atlas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Utilisation en médicinale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est également une plante médicinale riche en huiles essentielles qui contient du camphre, du cédrol, du bornéol et de l'acétate de bornyle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyprès_de_l'Atlas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypr%C3%A8s_de_l%27Atlas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation en papeterie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La valorisation de la biomasse de thuya, et en particulier de son bois peut être envisagée par la filière papetière par le biais d'une cuisson soude en présence d'anthraquinone (AQ).
 Le bois jeune de thuya (20 ans) se délignifie bien à l'aide d'une cuisson soude-anthraquinone dans les conditions habituellement appliquées aux résineux avec un temps total de cuisson de 145 min et une température de palier de 165 °C.
 Le rendement brut obtenu est égal à 43,3 % avec un indice Kappa de 33,6. Dans les mêmes conditions de cuisson, le bois âgé (60 ans) peut être lessivé mais se délignifie moins facilement.
-Utilisation en ébénisterie
-Le bois est utilisé pour des meubles simples. Les nœuds de la racine servent ordinairement à faire les tables. Dans l'Antiquité, les tables faites en bois de thuya avaient une grande réputation et valaient très cher[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyprès_de_l'Atlas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cypr%C3%A8s_de_l%27Atlas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Utilisation en ébénisterie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois est utilisé pour des meubles simples. Les nœuds de la racine servent ordinairement à faire les tables. Dans l'Antiquité, les tables faites en bois de thuya avaient une grande réputation et valaient très cher.
 </t>
         </is>
       </c>
